--- a/artfynd/A 58231-2020.xlsx
+++ b/artfynd/A 58231-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82897</v>
+        <v>82898</v>
       </c>
       <c r="B2" t="n">
         <v>97511</v>
@@ -718,14 +718,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>överblommad</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöstorps naturres. 100 m söderut, Öl</t>
+          <t>Sjöstorps NR, Öl</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -735,7 +735,7 @@
         <v>6355356.728239383</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,6 +755,11 @@
       <c r="W2" t="inlineStr">
         <is>
           <t>Böda</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Hö-Bor-1761</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -794,15 +799,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Karl-göran Bringer</t>
+          <t>Öland- Floraväktarna</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Karl-göran Bringer, Lissbeth Bringer</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Lissbeth Bringer, Karl-göran Bringer</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
